--- a/testing/Survey Navigation in VR Space.xlsx
+++ b/testing/Survey Navigation in VR Space.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\navVR\documents\technicalReport\Attachements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\navVR\documents\technicalReport\Attachements\Survey Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7970" tabRatio="671"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7970" tabRatio="671" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EaseOfLearning" sheetId="1" r:id="rId1"/>
@@ -1122,9 +1122,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,6 +1169,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -11073,13 +11073,13 @@
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11960,28 +11960,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12026,28 +12026,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.782500000000001</c:v>
+                  <c:v>14.782499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12362,10 +12362,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>68</c:v>
@@ -12374,10 +12374,10 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12755,25 +12755,25 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40953,6 +40953,188 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of [Presence] How immersive did you feel?" fld="0" subtotal="count" baseField="0" baseItem="1"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="A51:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Values2" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable21" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A34:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -41003,29 +41185,29 @@
     <dataField name="Count of [Presence] How immersive did you feel?" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -41038,7 +41220,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable28" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A69:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -41075,159 +41257,6 @@
     <dataField name="Count of [Presence] How immersive did you feel?" fld="0" subtotal="count" baseField="0" baseItem="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of [Presence] How immersive did you feel?" fld="0" subtotal="count" baseField="0" baseItem="1"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="20">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
-  <location ref="A51:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Values2" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
     <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -41254,35 +41283,6 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -41591,7 +41591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:G1"/>
     </sheetView>
@@ -41611,15 +41611,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41655,217 +41655,217 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>42744.785127314812</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>56</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <f t="shared" ref="E4:E9" si="0">AVERAGE(D$4:D$9)</f>
         <v>41.5</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>50</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <f t="shared" ref="H4:H9" si="1">AVERAGE(G$4:G$9)</f>
         <v>57</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="49">
         <v>72</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="51">
         <f t="shared" ref="K4:K9" si="2">AVERAGE(J$4:J$9)</f>
         <v>49</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="49">
         <v>80</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="51">
         <f t="shared" ref="N4:N9" si="3">AVERAGE(M$4:M$9)</f>
         <v>45.833333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>42748.527858796297</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>26</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="49">
         <v>35</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="49">
         <v>40</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="51">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="49">
         <v>30</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="51">
         <f t="shared" si="3"/>
         <v>45.833333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>42748.563784722224</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>60</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>52</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="49">
         <v>52</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="51">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="49">
         <v>60</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="51">
         <f t="shared" si="3"/>
         <v>45.833333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>42748.581550925926</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>24</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="49">
         <v>80</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="49">
         <v>50</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="51">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="49">
         <v>30</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="51">
         <f t="shared" si="3"/>
         <v>45.833333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>42748.601666666669</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>26</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="49">
         <v>35</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="49">
         <v>40</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="51">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="49">
         <v>25</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="51">
         <f t="shared" si="3"/>
         <v>45.833333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>42748.620682870373</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>57</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="54">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>90</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="54">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <v>40</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="54">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="52">
         <v>50</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="54">
         <f t="shared" si="3"/>
         <v>45.833333333333336</v>
       </c>
@@ -41904,289 +41904,289 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>42746.592280092591</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>51</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <f t="shared" ref="E12:E19" si="4">AVERAGE(D$12:D$19)</f>
         <v>46.5</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="49">
         <v>80</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="51">
         <f t="shared" ref="H12:H19" si="5">AVERAGE(G$12:G$19)</f>
         <v>70.125</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="49">
         <v>50</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="51">
         <f t="shared" ref="K12:K19" si="6">AVERAGE(J$12:J$19)</f>
         <v>58.25</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <v>30</v>
       </c>
-      <c r="N12" s="52">
+      <c r="N12" s="51">
         <f t="shared" ref="N12:N19" si="7">AVERAGE(M$12:M$19)</f>
         <v>38.625</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>42746.619537037041</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>18</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="49">
         <v>120</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="51">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="49">
         <v>150</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="51">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="49">
         <v>30</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="51">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>42746.665266203701</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>54</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="49">
         <v>115</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="51">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>60</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="51">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <v>100</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="51">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>42747.621134259258</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>20</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="49">
         <v>30</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <v>34</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="51">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="49">
         <v>17</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="51">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>42747.659120370372</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>10</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>30</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="51">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <v>11</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="51">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="49">
         <v>17</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="51">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>42747.702002314814</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>31</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="49">
         <v>34</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="51">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <v>70</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="51">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="49">
         <v>50</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="51">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>42747.648645833331</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <v>98</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <v>45</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="51">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <v>46</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="51">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="49">
         <v>45</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="51">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>42747.683032407411</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>90</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="54">
         <f t="shared" si="4"/>
         <v>46.5</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="52">
         <v>107</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <f t="shared" si="5"/>
         <v>70.125</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>45</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="54">
         <f t="shared" si="6"/>
         <v>58.25</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="52">
         <v>20</v>
       </c>
-      <c r="N19" s="55">
+      <c r="N19" s="54">
         <f t="shared" si="7"/>
         <v>38.625</v>
       </c>
@@ -42833,19 +42833,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -42890,47 +42890,47 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>42744.785127314812</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="36"/>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>12</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f>AVERAGE(D$4:D$9)</f>
         <v>11.483333333333334</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="49">
         <v>20</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="50">
         <f>AVERAGE(H$4:H$9)</f>
         <v>21.766666666666666</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="49">
         <v>15</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="50">
         <f>AVERAGE(L$4:L$9)</f>
         <v>18.75</v>
       </c>
       <c r="N4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="49">
         <v>18</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="50">
         <f>AVERAGE(P$4:P$9)</f>
         <v>18.333333333333332</v>
       </c>
@@ -42939,47 +42939,47 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>42748.527858796297</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="36"/>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>9</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <f t="shared" ref="E5:E9" si="0">AVERAGE(D$4:D$9)</f>
         <v>11.483333333333334</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="49">
         <v>12.6</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <f t="shared" ref="I5:I9" si="1">AVERAGE(H$4:H$9)</f>
         <v>21.766666666666666</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="49">
         <v>23.5</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="50">
         <f t="shared" ref="M5:M9" si="2">AVERAGE(L$4:L$9)</f>
         <v>18.75</v>
       </c>
       <c r="N5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="49">
         <v>18</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="50">
         <f t="shared" ref="Q5:Q9" si="3">AVERAGE(P$4:P$9)</f>
         <v>18.333333333333332</v>
       </c>
@@ -42988,47 +42988,47 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>42748.563784722224</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>8</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <f t="shared" si="0"/>
         <v>11.483333333333334</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="49">
         <v>23</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="50">
         <f t="shared" si="1"/>
         <v>21.766666666666666</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="49">
         <v>19</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="50">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
       <c r="N6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="49">
         <v>18</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="50">
         <f t="shared" si="3"/>
         <v>18.333333333333332</v>
       </c>
@@ -43037,47 +43037,47 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>42748.581550925926</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="36"/>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>11</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <f t="shared" si="0"/>
         <v>11.483333333333334</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>27</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="50">
         <f t="shared" si="1"/>
         <v>21.766666666666666</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="49">
         <v>19</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="50">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
       <c r="N7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="49">
         <v>18</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="50">
         <f t="shared" si="3"/>
         <v>18.333333333333332</v>
       </c>
@@ -43086,47 +43086,47 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="28" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>42748.601666666669</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>17</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <f t="shared" si="0"/>
         <v>11.483333333333334</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <v>20</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <f t="shared" si="1"/>
         <v>21.766666666666666</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="49">
         <v>17</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="50">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
       <c r="N8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="49">
         <v>20</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="50">
         <f t="shared" si="3"/>
         <v>18.333333333333332</v>
       </c>
@@ -43135,47 +43135,47 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>42748.620682870373</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>11.9</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <f t="shared" si="0"/>
         <v>11.483333333333334</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>28</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="53">
         <f t="shared" si="1"/>
         <v>21.766666666666666</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="52">
         <v>19</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="53">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
       <c r="N9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="52">
         <v>18</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="53">
         <f t="shared" si="3"/>
         <v>18.333333333333332</v>
       </c>
@@ -43184,10 +43184,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -43232,47 +43232,47 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>42746.592280092591</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>46</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <f>AVERAGE(D$12:D$19)</f>
         <v>14.19125</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <v>54</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <f>AVERAGE(H$12:H$19)</f>
         <v>21.822499999999998</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="49">
         <v>31</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <f>AVERAGE(L$12:L$19)</f>
         <v>20.837499999999999</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="49">
         <v>20</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="50">
         <f>AVERAGE(P$12:P$19)</f>
         <v>17.856249999999999</v>
       </c>
@@ -43281,47 +43281,47 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>42746.619537037041</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>9.39</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <f t="shared" ref="E13:E19" si="4">AVERAGE(D$12:D$19)</f>
         <v>14.19125</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <v>15.6</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <f t="shared" ref="I13:I19" si="5">AVERAGE(H$12:H$19)</f>
         <v>21.822499999999998</v>
       </c>
       <c r="J13" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="49">
         <v>10.7</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="50">
         <f t="shared" ref="M13:M19" si="6">AVERAGE(L$12:L$19)</f>
         <v>20.837499999999999</v>
       </c>
       <c r="N13" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="49">
         <v>16</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="50">
         <f t="shared" ref="Q13:Q19" si="7">AVERAGE(P$12:P$19)</f>
         <v>17.856249999999999</v>
       </c>
@@ -43330,47 +43330,47 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>42746.665266203701</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="36"/>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>6.9</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <f t="shared" si="4"/>
         <v>14.19125</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <v>21.47</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <f t="shared" si="5"/>
         <v>21.822499999999998</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <v>13</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="50">
         <f t="shared" si="6"/>
         <v>20.837499999999999</v>
       </c>
       <c r="N14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="49">
         <v>18</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="50">
         <f t="shared" si="7"/>
         <v>17.856249999999999</v>
       </c>
@@ -43379,47 +43379,47 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>42747.621134259258</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>16.03</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <f t="shared" si="4"/>
         <v>14.19125</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <v>16</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <f t="shared" si="5"/>
         <v>21.822499999999998</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="49">
         <v>26</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="50">
         <f t="shared" si="6"/>
         <v>20.837499999999999</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15" s="49">
         <v>19.850000000000001</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="50">
         <f t="shared" si="7"/>
         <v>17.856249999999999</v>
       </c>
@@ -43428,47 +43428,47 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>42747.659120370372</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>7.84</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <f t="shared" si="4"/>
         <v>14.19125</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>16</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="50">
         <f t="shared" si="5"/>
         <v>21.822499999999998</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="49">
         <v>20</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="50">
         <f t="shared" si="6"/>
         <v>20.837499999999999</v>
       </c>
       <c r="N16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="49">
         <v>17</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="50">
         <f t="shared" si="7"/>
         <v>17.856249999999999</v>
       </c>
@@ -43477,47 +43477,47 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>42747.702002314814</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>9.64</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f t="shared" si="4"/>
         <v>14.19125</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>11.51</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <f t="shared" si="5"/>
         <v>21.822499999999998</v>
       </c>
       <c r="J17" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="49">
         <v>19</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="50">
         <f t="shared" si="6"/>
         <v>20.837499999999999</v>
       </c>
       <c r="N17" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="49">
         <v>17</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="50">
         <f t="shared" si="7"/>
         <v>17.856249999999999</v>
       </c>
@@ -43526,47 +43526,47 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>42747.648645833331</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36"/>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <v>6.4</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <f t="shared" si="4"/>
         <v>14.19125</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <v>19</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <f t="shared" si="5"/>
         <v>21.822499999999998</v>
       </c>
       <c r="J18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="49">
         <v>24</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <f t="shared" si="6"/>
         <v>20.837499999999999</v>
       </c>
       <c r="N18" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="49">
         <v>18</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="50">
         <f t="shared" si="7"/>
         <v>17.856249999999999</v>
       </c>
@@ -43575,47 +43575,47 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>42747.683032407411</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>11.33</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="53">
         <f t="shared" si="4"/>
         <v>14.19125</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <v>21</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="53">
         <f t="shared" si="5"/>
         <v>21.822499999999998</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="52">
         <v>23</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="53">
         <f t="shared" si="6"/>
         <v>20.837499999999999</v>
       </c>
       <c r="N19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="52">
         <v>17</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="53">
         <f t="shared" si="7"/>
         <v>17.856249999999999</v>
       </c>
@@ -44891,7 +44891,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:L20"/>
+      <selection activeCell="A4" sqref="A4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44909,15 +44909,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
@@ -44946,16 +44946,16 @@
         <v>67</v>
       </c>
       <c r="C3" s="36"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="32"/>
@@ -44975,228 +44975,228 @@
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>42744.785127314812</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="36"/>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>7</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f>AVERAGE(D$4:D$9)</f>
         <v>10.049999999999999</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <v>5</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <v>5</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="50">
+      <c r="I4" s="49">
         <v>19</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="50">
         <f>AVERAGE(I$4:I$9)</f>
         <v>73.283333333333331</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="50">
         <v>3</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="51">
         <v>3</v>
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>42748.527858796297</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="36"/>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>9</v>
       </c>
-      <c r="E5" s="51">
-        <f t="shared" ref="E5:E9" si="0">AVERAGE(D$4:D$9)</f>
+      <c r="E5" s="50">
+        <f>AVERAGE(D$4:D$9)</f>
         <v>10.049999999999999</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <v>5</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <v>3</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="50">
+      <c r="I5" s="49">
         <v>16.7</v>
       </c>
-      <c r="J5" s="51">
-        <f t="shared" ref="J5:J9" si="1">AVERAGE(I$4:I$9)</f>
+      <c r="J5" s="50">
+        <f>AVERAGE(I$4:I$9)</f>
         <v>73.283333333333331</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="50">
         <v>5</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="51">
         <v>5</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>42748.563784722224</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E6" s="51">
-        <f t="shared" si="0"/>
+      <c r="E6" s="50">
+        <f>AVERAGE(D$4:D$9)</f>
         <v>10.049999999999999</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <v>5</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <v>5</v>
       </c>
       <c r="H6" s="32"/>
-      <c r="I6" s="50">
+      <c r="I6" s="49">
         <v>68</v>
       </c>
-      <c r="J6" s="51">
-        <f t="shared" si="1"/>
+      <c r="J6" s="50">
+        <f>AVERAGE(I$4:I$9)</f>
         <v>73.283333333333331</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <v>5</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="51">
         <v>1</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>42748.581550925926</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="36"/>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>11</v>
       </c>
-      <c r="E7" s="51">
-        <f t="shared" si="0"/>
+      <c r="E7" s="50">
+        <f>AVERAGE(D$4:D$9)</f>
         <v>10.049999999999999</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <v>5</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <v>4</v>
       </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="50">
+      <c r="I7" s="49">
         <v>86</v>
       </c>
-      <c r="J7" s="51">
-        <f t="shared" si="1"/>
+      <c r="J7" s="50">
+        <f>AVERAGE(I$4:I$9)</f>
         <v>73.283333333333331</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="50">
         <v>1</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="51">
         <v>1</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>42748.601666666669</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>14</v>
       </c>
-      <c r="E8" s="51">
-        <f t="shared" si="0"/>
+      <c r="E8" s="50">
+        <f>AVERAGE(D$4:D$9)</f>
         <v>10.049999999999999</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <v>5</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>3</v>
       </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="50">
+      <c r="I8" s="49">
         <v>130</v>
       </c>
-      <c r="J8" s="51">
-        <f t="shared" si="1"/>
+      <c r="J8" s="50">
+        <f>AVERAGE(I$4:I$9)</f>
         <v>73.283333333333331</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="50">
         <v>3</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="51">
         <v>4</v>
       </c>
       <c r="N8" s="29"/>
       <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>42748.620682870373</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>10</v>
       </c>
-      <c r="E9" s="54">
-        <f t="shared" si="0"/>
+      <c r="E9" s="53">
+        <f>AVERAGE(D$4:D$9)</f>
         <v>10.049999999999999</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>5</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="54">
         <v>4</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <v>120</v>
       </c>
-      <c r="J9" s="54">
-        <f t="shared" si="1"/>
+      <c r="J9" s="53">
+        <f>AVERAGE(I$4:I$9)</f>
         <v>73.283333333333331</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="53">
         <v>3</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="54">
         <v>2</v>
       </c>
       <c r="N9" s="31"/>
@@ -45255,314 +45255,314 @@
       <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>42746.592280092591</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>22</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <f>AVERAGE(D$12:D$19)</f>
         <v>14.782500000000001</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>5</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <v>5</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="50">
+      <c r="I12" s="49">
         <v>20</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="50">
         <f>AVERAGE(I$12:I$19)</f>
         <v>83.375</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="50">
         <v>1</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="51">
         <v>3</v>
       </c>
       <c r="N12" s="29"/>
       <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>42746.619537037041</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>25</v>
       </c>
-      <c r="E13" s="51">
-        <f t="shared" ref="E13:E19" si="2">AVERAGE(D$12:D$19)</f>
+      <c r="E13" s="50">
+        <f t="shared" ref="E13:E19" si="0">AVERAGE(D$12:D$19)</f>
         <v>14.782500000000001</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <v>5</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="51">
         <v>3</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="50">
+      <c r="I13" s="49">
         <v>148</v>
       </c>
-      <c r="J13" s="51">
-        <f t="shared" ref="J13:J19" si="3">AVERAGE(I$12:I$19)</f>
+      <c r="J13" s="50">
+        <f t="shared" ref="J13:J19" si="1">AVERAGE(I$12:I$19)</f>
         <v>83.375</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="50">
         <v>5</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="51">
         <v>4</v>
       </c>
       <c r="N13" s="29"/>
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>42746.665266203701</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="36"/>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>7</v>
       </c>
-      <c r="E14" s="51">
-        <f t="shared" si="2"/>
+      <c r="E14" s="50">
+        <f t="shared" si="0"/>
         <v>14.782500000000001</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <v>5</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="51">
         <v>3</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="50">
+      <c r="I14" s="49">
         <v>95</v>
       </c>
-      <c r="J14" s="51">
-        <f t="shared" si="3"/>
+      <c r="J14" s="50">
+        <f t="shared" si="1"/>
         <v>83.375</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="50">
         <v>5</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="51">
         <v>3</v>
       </c>
       <c r="N14" s="29"/>
       <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>42747.621134259258</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>11.76</v>
       </c>
-      <c r="E15" s="51">
-        <f t="shared" si="2"/>
+      <c r="E15" s="50">
+        <f t="shared" si="0"/>
         <v>14.782500000000001</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>5</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <v>3</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="50">
+      <c r="I15" s="49">
         <v>87</v>
       </c>
-      <c r="J15" s="51">
-        <f t="shared" si="3"/>
+      <c r="J15" s="50">
+        <f t="shared" si="1"/>
         <v>83.375</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="50">
         <v>4</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="51">
         <v>2</v>
       </c>
       <c r="N15" s="29"/>
       <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>42747.659120370372</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>12</v>
       </c>
-      <c r="E16" s="51">
-        <f t="shared" si="2"/>
+      <c r="E16" s="50">
+        <f t="shared" si="0"/>
         <v>14.782500000000001</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <v>5</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="51">
         <v>4</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="50">
+      <c r="I16" s="49">
         <v>80</v>
       </c>
-      <c r="J16" s="51">
-        <f t="shared" si="3"/>
+      <c r="J16" s="50">
+        <f t="shared" si="1"/>
         <v>83.375</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="50">
         <v>3</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="51">
         <v>4</v>
       </c>
       <c r="N16" s="29"/>
       <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>42747.702002314814</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>7.5</v>
       </c>
-      <c r="E17" s="51">
-        <f t="shared" si="2"/>
+      <c r="E17" s="50">
+        <f t="shared" si="0"/>
         <v>14.782500000000001</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <v>5</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
         <v>1</v>
       </c>
       <c r="H17" s="32"/>
-      <c r="I17" s="50">
+      <c r="I17" s="49">
         <v>95</v>
       </c>
-      <c r="J17" s="51">
-        <f t="shared" si="3"/>
+      <c r="J17" s="50">
+        <f t="shared" si="1"/>
         <v>83.375</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="50">
         <v>3</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="51">
         <v>2</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>42747.648645833331</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36"/>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <v>16</v>
       </c>
-      <c r="E18" s="51">
-        <f t="shared" si="2"/>
+      <c r="E18" s="50">
+        <f t="shared" si="0"/>
         <v>14.782500000000001</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <v>5</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="51">
         <v>3</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="I18" s="50">
+      <c r="I18" s="49">
         <v>75</v>
       </c>
-      <c r="J18" s="51">
-        <f t="shared" si="3"/>
+      <c r="J18" s="50">
+        <f t="shared" si="1"/>
         <v>83.375</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="50">
         <v>4</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="51">
         <v>3</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>42747.683032407411</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>17</v>
       </c>
-      <c r="E19" s="54">
-        <f t="shared" si="2"/>
+      <c r="E19" s="53">
+        <f t="shared" si="0"/>
         <v>14.782500000000001</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="53">
         <v>5</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="54">
         <v>3</v>
       </c>
       <c r="H19" s="32"/>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <v>67</v>
       </c>
-      <c r="J19" s="54">
-        <f t="shared" si="3"/>
+      <c r="J19" s="53">
+        <f t="shared" si="1"/>
         <v>83.375</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="53">
         <v>3</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="54">
         <v>2</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
     </row>
@@ -45797,8 +45797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45875,17 +45875,17 @@
         <v>5</v>
       </c>
       <c r="I2" s="20">
-        <v>19</v>
+        <v>16.7</v>
       </c>
       <c r="J2" s="21">
         <f>AVERAGE(I$2:I$7)</f>
         <v>73.283333333333331</v>
       </c>
       <c r="K2" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" s="30">
         <v>1</v>
@@ -45907,7 +45907,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="21">
-        <f t="shared" ref="E3:E7" si="0">AVERAGE(D$2:D$7)</f>
+        <f>AVERAGE(D$2:D$7)</f>
         <v>10.049999999999999</v>
       </c>
       <c r="F3" s="21">
@@ -45917,23 +45917,23 @@
         <v>3</v>
       </c>
       <c r="I3" s="20">
-        <v>16.7</v>
+        <v>19</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J7" si="1">AVERAGE(I$2:I$7)</f>
+        <f>AVERAGE(I$2:I$7)</f>
         <v>73.283333333333331</v>
       </c>
       <c r="K3" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" s="27">
         <v>2</v>
       </c>
       <c r="O3" s="18">
-        <f t="shared" ref="O3:O6" si="2">COUNTIF($K$2:$K$7, N3)</f>
+        <f t="shared" ref="O3:O6" si="0">COUNTIF($K$2:$K$7, N3)</f>
         <v>0</v>
       </c>
     </row>
@@ -45949,7 +45949,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D$2:D$7)</f>
         <v>10.049999999999999</v>
       </c>
       <c r="F4" s="21">
@@ -45962,7 +45962,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I$2:I$7)</f>
         <v>73.283333333333331</v>
       </c>
       <c r="K4" s="21">
@@ -45975,7 +45975,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -45988,10 +45988,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D$2:D$7)</f>
         <v>10.049999999999999</v>
       </c>
       <c r="F5" s="21">
@@ -46004,7 +46004,7 @@
         <v>86</v>
       </c>
       <c r="J5" s="21">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I$2:I$7)</f>
         <v>73.283333333333331</v>
       </c>
       <c r="K5" s="21">
@@ -46017,7 +46017,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -46030,36 +46030,36 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D$2:D$7)</f>
         <v>10.049999999999999</v>
       </c>
       <c r="F6" s="21">
         <v>5</v>
       </c>
       <c r="G6" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="20">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I$2:I$7)</f>
         <v>73.283333333333331</v>
       </c>
       <c r="K6" s="21">
         <v>3</v>
       </c>
       <c r="L6" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="28">
         <v>5</v>
       </c>
       <c r="O6" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -46072,30 +46072,30 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" s="24">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D$2:D$7)</f>
         <v>10.049999999999999</v>
       </c>
       <c r="F7" s="24">
         <v>5</v>
       </c>
       <c r="G7" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="23">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J7" s="24">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I$2:I$7)</f>
         <v>73.283333333333331</v>
       </c>
       <c r="K7" s="24">
         <v>3</v>
       </c>
       <c r="L7" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46149,17 +46149,17 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="20">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E10" s="21">
         <f>AVERAGE(D$10:D$17)</f>
-        <v>14.782500000000001</v>
+        <v>14.782499999999999</v>
       </c>
       <c r="F10" s="21">
         <v>5</v>
       </c>
       <c r="G10" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10" s="20">
         <v>20</v>
@@ -46191,36 +46191,36 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="20">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" ref="E11:E17" si="3">AVERAGE(D$10:D$17)</f>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F11" s="21">
         <v>5</v>
       </c>
       <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>67</v>
+      </c>
+      <c r="J11" s="21">
+        <f>AVERAGE(I$10:I$17)</f>
+        <v>83.375</v>
+      </c>
+      <c r="K11" s="21">
         <v>3</v>
       </c>
-      <c r="I11" s="20">
-        <v>148</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" ref="J11:J17" si="4">AVERAGE(I$10:I$17)</f>
-        <v>83.375</v>
-      </c>
-      <c r="K11" s="21">
-        <v>5</v>
-      </c>
       <c r="L11" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="27">
         <v>2</v>
       </c>
       <c r="O11" s="18">
-        <f t="shared" ref="O11:O14" si="5">COUNTIF($K$10:$K$17, N11)</f>
+        <f t="shared" ref="O11:O14" si="1">COUNTIF($K$10:$K$17, N11)</f>
         <v>0</v>
       </c>
     </row>
@@ -46233,11 +46233,11 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="20">
-        <v>7</v>
+        <v>11.76</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="3"/>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F12" s="21">
         <v>5</v>
@@ -46246,14 +46246,14 @@
         <v>3</v>
       </c>
       <c r="I12" s="20">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="J12" s="21">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I$10:I$17)</f>
         <v>83.375</v>
       </c>
       <c r="K12" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="22">
         <v>3</v>
@@ -46262,7 +46262,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -46275,36 +46275,36 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="20">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="3"/>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F13" s="21">
         <v>5</v>
       </c>
       <c r="G13" s="22">
+        <v>4</v>
+      </c>
+      <c r="I13" s="20">
+        <v>80</v>
+      </c>
+      <c r="J13" s="21">
+        <f>AVERAGE(I$10:I$17)</f>
+        <v>83.375</v>
+      </c>
+      <c r="K13" s="21">
         <v>3</v>
       </c>
-      <c r="I13" s="20">
-        <v>87</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" si="4"/>
-        <v>83.375</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="L13" s="22">
         <v>4</v>
-      </c>
-      <c r="L13" s="22">
-        <v>2</v>
       </c>
       <c r="N13" s="27">
         <v>4</v>
       </c>
       <c r="O13" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -46317,36 +46317,36 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="3"/>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F14" s="21">
         <v>5</v>
       </c>
       <c r="G14" s="22">
+        <v>3</v>
+      </c>
+      <c r="I14" s="20">
+        <v>87</v>
+      </c>
+      <c r="J14" s="21">
+        <f>AVERAGE(I$10:I$17)</f>
+        <v>83.375</v>
+      </c>
+      <c r="K14" s="21">
         <v>4</v>
       </c>
-      <c r="I14" s="20">
-        <v>80</v>
-      </c>
-      <c r="J14" s="21">
-        <f t="shared" si="4"/>
-        <v>83.375</v>
-      </c>
-      <c r="K14" s="21">
-        <v>3</v>
-      </c>
       <c r="L14" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" s="28">
         <v>5</v>
       </c>
       <c r="O14" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -46359,30 +46359,30 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="20">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="3"/>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F15" s="21">
         <v>5</v>
       </c>
       <c r="G15" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="20">
         <v>95</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I$10:I$17)</f>
         <v>83.375</v>
       </c>
       <c r="K15" s="21">
+        <v>5</v>
+      </c>
+      <c r="L15" s="22">
         <v>3</v>
-      </c>
-      <c r="L15" s="22">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -46394,30 +46394,30 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="3"/>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F16" s="21">
         <v>5</v>
       </c>
       <c r="G16" s="22">
+        <v>5</v>
+      </c>
+      <c r="I16" s="20">
+        <v>95</v>
+      </c>
+      <c r="J16" s="21">
+        <f>AVERAGE(I$10:I$17)</f>
+        <v>83.375</v>
+      </c>
+      <c r="K16" s="21">
         <v>3</v>
       </c>
-      <c r="I16" s="20">
-        <v>75</v>
-      </c>
-      <c r="J16" s="21">
-        <f t="shared" si="4"/>
-        <v>83.375</v>
-      </c>
-      <c r="K16" s="21">
-        <v>4</v>
-      </c>
       <c r="L16" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46429,11 +46429,11 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E17" s="24">
-        <f t="shared" si="3"/>
-        <v>14.782500000000001</v>
+        <f>AVERAGE(D$10:D$17)</f>
+        <v>14.782499999999999</v>
       </c>
       <c r="F17" s="24">
         <v>5</v>
@@ -46442,17 +46442,17 @@
         <v>3</v>
       </c>
       <c r="I17" s="23">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J17" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I$10:I$17)</f>
         <v>83.375</v>
       </c>
       <c r="K17" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -46866,6 +46866,9 @@
       <c r="C81" s="17"/>
     </row>
   </sheetData>
+  <sortState ref="D2:G7">
+    <sortCondition ref="D2:D7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
   <drawing r:id="rId6"/>
@@ -46890,15 +46893,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="32"/>
@@ -46931,133 +46934,133 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>42744.785127314812</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="36"/>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>5</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <v>3</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <v>3</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>42748.527858796297</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="36"/>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>5</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <v>4</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>42748.563784722224</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>4</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <v>1</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>42748.581550925926</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="36"/>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>5</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <v>1</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <v>3</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>42748.601666666669</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>5</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <v>4</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <v>5</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>42748.620682870373</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>5</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>2</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="42"/>
       <c r="C10" s="43"/>
       <c r="D10" s="32"/>
@@ -47066,7 +47069,7 @@
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -47087,170 +47090,170 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>42746.592280092591</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>5</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <v>3</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>4</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>42746.619537037041</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>5</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <v>2</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <v>4</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>42746.665266203701</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="36"/>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>5</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <v>2</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <v>5</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>42747.621134259258</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>5</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <v>4</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>5</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>42747.659120370372</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>5</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <v>3</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <v>3</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>42747.702002314814</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>5</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <v>1</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <v>3</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>42747.648645833331</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36"/>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <v>5</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <v>2</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <v>4</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>42747.683032407411</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>5</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="53">
         <v>2</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="53">
         <v>4</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="54">
         <v>3</v>
       </c>
     </row>
